--- a/Results/coefficients_TSP3F.xlsx
+++ b/Results/coefficients_TSP3F.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="7">
   <si>
     <t>Row</t>
   </si>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -72,11 +72,31 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -88,6 +108,26 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,61 +141,61 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="8.08984375" customWidth="true"/>
-    <col min="5" max="5" width="10.453125" customWidth="true"/>
+    <col min="5" max="5" width="11.453125" customWidth="true"/>
     <col min="6" max="6" width="13.08984375" customWidth="true"/>
     <col min="7" max="7" width="12.453125" customWidth="true"/>
     <col min="8" max="8" width="12.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1.2313531898422387</v>
+        <v>1.2382321875056772</v>
       </c>
       <c r="F2">
-        <v>-0.6863473056972752</v>
+        <v>-0.69292889821029235</v>
       </c>
       <c r="G2">
-        <v>0.19733945956868607</v>
+        <v>0.1958932218435212</v>
       </c>
       <c r="H2">
-        <v>0.34242510979026569</v>
+        <v>0.34209747107376964</v>
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>3.3044566618068769</v>
+        <v>3.3224970426654483</v>
       </c>
       <c r="F3">
-        <v>-1.9202448385198718</v>
+        <v>-1.9379294385865697</v>
       </c>
       <c r="G3">
-        <v>3.6289858032182751</v>
+        <v>3.6593946626034284</v>
       </c>
       <c r="H3">
-        <v>5.5101894759402201</v>
+        <v>5.5430581510162034</v>
       </c>
     </row>
   </sheetData>
